--- a/curvefits.xlsx
+++ b/curvefits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wallawallauniversity-my.sharepoint.com/personal/miles_kim_wallawalla_edu/Documents/Spring 2021/ENGR 475/Lab/Lab 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wallawallauniversity-my.sharepoint.com/personal/miles_kim_wallawalla_edu/Documents/Spring 2021/ENGR 475/Lab/Team Assignment 1/Task 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{058854A4-E27B-4153-8682-2EB845D85B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B116D536-FB4B-467C-8ABD-30DCC823DFBC}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{058854A4-E27B-4153-8682-2EB845D85B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2AC1BFDC-3CB5-4BA5-AF20-069954B4D216}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{794D88E3-C81A-40AD-8294-0310499C8C9F}"/>
+    <workbookView xWindow="15972" yWindow="5196" windowWidth="13824" windowHeight="7176" xr2:uid="{794D88E3-C81A-40AD-8294-0310499C8C9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,22 +51,22 @@
     <t>PvT y-int</t>
   </si>
   <si>
-    <t>TSvP slope</t>
-  </si>
-  <si>
-    <t>TSvP y-int</t>
-  </si>
-  <si>
-    <t>PvTS slope</t>
-  </si>
-  <si>
-    <t>PvTS y-int</t>
-  </si>
-  <si>
     <t>Airspeed</t>
   </si>
   <si>
     <t>Max Thrust</t>
+  </si>
+  <si>
+    <t>TvTS slope</t>
+  </si>
+  <si>
+    <t>TvTS y-int</t>
+  </si>
+  <si>
+    <t>TSvT slope</t>
+  </si>
+  <si>
+    <t>TSvT y-int</t>
   </si>
 </sst>
 </file>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -365,11 +365,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -391,6 +456,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,12 +778,23 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <pane xSplit="5" ySplit="17" topLeftCell="G18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -721,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -736,19 +817,19 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="20" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -779,7 +860,7 @@
       <c r="I2" s="8">
         <v>1.8633540372670816</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="22">
         <v>-2.1304347826086967</v>
       </c>
       <c r="K2" s="17">
@@ -814,7 +895,7 @@
       <c r="I3" s="12">
         <v>1.8575851393188862</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="23">
         <v>-1.9029927760577925</v>
       </c>
       <c r="K3" s="18">
@@ -849,7 +930,7 @@
       <c r="I4" s="12">
         <v>1.6186612576064909</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="23">
         <v>-1.3036916835699799</v>
       </c>
       <c r="K4" s="18">
@@ -884,10 +965,10 @@
       <c r="I5" s="12">
         <v>2.5380710659898478</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="23">
         <v>-1.1957134799774396</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="19">
         <v>1.38</v>
       </c>
     </row>
@@ -919,7 +1000,7 @@
       <c r="I6" s="12">
         <v>1.6541945647892871</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="23">
         <v>-1.5510043324143363</v>
       </c>
       <c r="K6" s="18">
@@ -954,7 +1035,7 @@
       <c r="I7" s="12">
         <v>1.7709563164108624</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="23">
         <v>-1.8752459661550573</v>
       </c>
       <c r="K7" s="18">
@@ -989,7 +1070,7 @@
       <c r="I8" s="12">
         <v>2.0192307692307696</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="23">
         <v>-1.6935096153846156</v>
       </c>
       <c r="K8" s="18">
@@ -1024,10 +1105,10 @@
       <c r="I9" s="12">
         <v>2.1244309559939305</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="23">
         <v>-1.2769347496206376</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="19">
         <v>1.52</v>
       </c>
     </row>
@@ -1059,7 +1140,7 @@
       <c r="I10" s="12">
         <v>1.8633540372670814</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="23">
         <v>-1.8405797101449282</v>
       </c>
       <c r="K10" s="19">
@@ -1094,7 +1175,7 @@
       <c r="I11" s="12">
         <v>1.819284414796847</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="23">
         <v>-1.9567414594703867</v>
       </c>
       <c r="K11" s="19">
@@ -1129,7 +1210,7 @@
       <c r="I12" s="12">
         <v>1.8963337547408348</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J12" s="23">
         <v>-1.4222503160556261</v>
       </c>
       <c r="K12" s="19">
@@ -1164,10 +1245,10 @@
       <c r="I13" s="12">
         <v>1.9867549668874174</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="23">
         <v>-1.6523178807947019</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="19">
         <v>1.87</v>
       </c>
     </row>
@@ -1199,7 +1280,7 @@
       <c r="I14" s="12">
         <v>1.430517711171662</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="23">
         <v>-1.4916553133514983</v>
       </c>
       <c r="K14" s="19">
@@ -1234,7 +1315,7 @@
       <c r="I15" s="12">
         <v>1.6172506738544479</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="23">
         <v>-1.6118598382749332</v>
       </c>
       <c r="K15" s="19">
@@ -1269,7 +1350,7 @@
       <c r="I16" s="12">
         <v>1.5390252839868082</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="23">
         <v>-1.3794430194210332</v>
       </c>
       <c r="K16" s="19">
@@ -1304,10 +1385,10 @@
       <c r="I17" s="16">
         <v>1.7135862913096691</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="24">
         <v>-1.4271725826193384</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="25">
         <v>2.0099999999999998</v>
       </c>
     </row>
